--- a/biology/Biologie cellulaire et moléculaire/Sous-unité_ribosomique_60S/Sous-unité_ribosomique_60S.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Sous-unité_ribosomique_60S/Sous-unité_ribosomique_60S.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sous-unit%C3%A9_ribosomique_60S</t>
+          <t>Sous-unité_ribosomique_60S</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-unité ribosomique 60S est la plus grande des deux sous-unités constituant les ribosomes des eucaryotes. Il s'agit d'un complexe ribonucléoprotéique constitué de trois ARN ribosomiques — l'ARNr 28S, l'ARNr 5,8S et l'ARNr 5S — ainsi que de protéines ribosomiques. Elle est structurellement et fonctionnellement apparentée à la grande sous-unité ribosomique 50S des ribosomes de procaryotes[1],[2],[3],[4],[5], mais est sensiblement plus grande qu'elle et contient de nombreux segments protéiques supplémentaires ainsi que des séquences d'ARN additionnelles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-unité ribosomique 60S est la plus grande des deux sous-unités constituant les ribosomes des eucaryotes. Il s'agit d'un complexe ribonucléoprotéique constitué de trois ARN ribosomiques — l'ARNr 28S, l'ARNr 5,8S et l'ARNr 5S — ainsi que de protéines ribosomiques. Elle est structurellement et fonctionnellement apparentée à la grande sous-unité ribosomique 50S des ribosomes de procaryotes mais est sensiblement plus grande qu'elle et contient de nombreux segments protéiques supplémentaires ainsi que des séquences d'ARN additionnelles.
 </t>
         </is>
       </c>
